--- a/Hardware/COHR.xlsx
+++ b/Hardware/COHR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05EEAF8-1757-444C-B4AC-AAA31CFCFDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CE7399-D311-B141-A2A8-6DB260C34E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1945,11 +1945,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>106.5</v>
-    <v>32.090000000000003</v>
-    <v>1.6788000000000001</v>
-    <v>5.8760000000000003</v>
-    <v>6.2797999999999993E-2</v>
+    <v>111.66</v>
+    <v>34.979999999999997</v>
+    <v>1.6745000000000001</v>
+    <v>8.8699999999999992</v>
+    <v>9.3025999999999998E-2</v>
+    <v>0.75</v>
+    <v>7.1940000000000007E-3</v>
     <v>USD</v>
     <v>Coherent Corp., specializing in materials, networking, and lasers, is a vertically integrated manufacturing company that develops, manufactures, and markets engineered materials, optoelectronic components and devices, and lasers for use in the industrial, communications, electronics, and instrumentation markets. Its segments include Networking, Materials and Lasers. The Networking segment leverages its compound semiconductor technology platforms and knowledge of end-user applications for its key end markets to deliver differentiated components and subsystems. The Materials segment includes engineered materials and optoelectronic devices, such as those based on zinc selenide (ZnSe), zinc sulfide (ZnS), gallium arsenide (GaAs), indium phosphide (InP), gallium antimonide (GaSb), and silicon carbide (SiC). The Lasers segment's lasers and optics products serve industrial customers in semiconductor and display capital equipment, precision manufacturing, and aerospace &amp; defense, and others.</v>
     <v>26157</v>
@@ -1957,23 +1959,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>375 Saxonburg Blvd, SAXONBURG, PA, 16056 US</v>
-    <v>100.09</v>
+    <v>104.31</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45602.945905671091</v>
+    <v>45616.035137928127</v>
     <v>0</v>
-    <v>95.54</v>
-    <v>15355248023</v>
+    <v>93.5</v>
+    <v>16119082080</v>
     <v>Coherent Corp.</v>
     <v>Coherent Corp.</v>
-    <v>95.79</v>
-    <v>93.57</v>
-    <v>99.445999999999998</v>
-    <v>154407900</v>
+    <v>94.23</v>
+    <v>95.35</v>
+    <v>104.22</v>
+    <v>105</v>
+    <v>154664000</v>
     <v>COHR</v>
     <v>Coherent Corp. (XNYS:COHR)</v>
-    <v>89</v>
-    <v>2226581</v>
+    <v>2923696</v>
+    <v>2609403</v>
     <v>1971</v>
   </rv>
   <rv s="2">
@@ -2005,6 +2008,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2024,6 +2029,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2040,7 +2046,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2051,13 +2057,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2121,13 +2130,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2845,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>99.445999999999998</v>
+        <v>104.22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>2.817993764543953</v>
+        <v>2.9581725233987886</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2899,7 +2920,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>193009875</v>
+        <v>193330000</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.2797999999999993E-2</v>
+        <v>9.3025999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>34.50617533258427</v>
+        <v>36.222656359550562</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>15355248023</v>
+        <v>16119082080</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.8589574023320224E-2</v>
+        <v>2.723480144968652E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3007,7 +3028,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>45.773383127251684</v>
+        <v>45.697589384565028</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.6788000000000001</v>
+        <v>1.6745000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.53971619645584856</v>
+        <v>-0.56152763975662034</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
